--- a/biology/Zoologie/Isoxya_kochi/Isoxya_kochi.xlsx
+++ b/biology/Zoologie/Isoxya_kochi/Isoxya_kochi.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Isoxya kochi est une espèce d'araignées aranéomorphes de la famille des Araneidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Isoxya kochi est une espèce d'araignées aranéomorphes de la famille des Araneidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre en Afrique de l'Ouest, en Afrique centrale et en Afrique de l'Est[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre en Afrique de l'Ouest, en Afrique centrale et en Afrique de l'Est.
 </t>
         </is>
       </c>
@@ -542,10 +556,12 @@
           <t>Systématique et taxinomie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce a été décrite sous le protonyme Paraplectana kochii par O. Pickard-Cambridge en 1877[2]. Elle est placée dans le genre Paraplectanoides par Simon en 1895[3] puis dans le genre Isoxya par Hormiga, Kulkarni, Arnedo, Dimitrov, Giribet, Kallal et Scharff en 2023[4].
-Isoxia penizoides[5] a été placée en synonymie par Hormiga, Kulkarni, Arnedo, Dimitrov, Giribet, Kallal et Scharff en 2023[4].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce a été décrite sous le protonyme Paraplectana kochii par O. Pickard-Cambridge en 1877. Elle est placée dans le genre Paraplectanoides par Simon en 1895 puis dans le genre Isoxya par Hormiga, Kulkarni, Arnedo, Dimitrov, Giribet, Kallal et Scharff en 2023.
+Isoxia penizoides a été placée en synonymie par Hormiga, Kulkarni, Arnedo, Dimitrov, Giribet, Kallal et Scharff en 2023.
 </t>
         </is>
       </c>
@@ -574,7 +590,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>O. Pickard-Cambridge, 1877 : « On some new genera and species of Araneidea. » Annals and Magazine of Natural History, sér. 4, vol. 19, no 109, p. 26-39 (texte intégral).</t>
         </is>
